--- a/meetings/meetings1.xlsx
+++ b/meetings/meetings1.xlsx
@@ -132,10 +132,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode=",,"/>
-    <numFmt numFmtId="165" formatCode="dddd, mmmm dd, yyyy"/>
+    <numFmt numFmtId="164" formatCode="dddd, mmmm dd, yyyy"/>
+    <numFmt numFmtId="165" formatCode=",,"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,20 +152,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1e395b"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -175,8 +163,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1e395b"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -314,14 +302,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,55 +322,52 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -394,88 +376,88 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -798,387 +780,387 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="53" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="54" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="55" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="56" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="57" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="58" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="58" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="58" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="58" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="58" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="51" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="52" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="53" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="54" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="55" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="56" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="56" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="56" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="56" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="56" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>45709</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="21"/>
+      <c r="B10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="28"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="27"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="19"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="30">
         <v>1</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="32">
         <v>45709</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="29.25">
       <c r="A14" s="30">
         <v>2</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="32">
         <v>45709</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="30">
         <v>3</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="30.5625">
       <c r="A17" s="30">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="30.5625">
       <c r="A18" s="30">
         <v>2</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="34.5">
+      <c r="E18" s="39"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="30.5625">
       <c r="A19" s="30">
         <v>3</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="37.5">
+      <c r="E19" s="39"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30.5625">
       <c r="A20" s="30">
         <v>4</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="43">
+      <c r="A21" s="41">
         <v>5</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
